--- a/biology/Botanique/Sommier_(registre)/Sommier_(registre).xlsx
+++ b/biology/Botanique/Sommier_(registre)/Sommier_(registre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'administration française un sommier est un registre autrefois manuscrit, aujourd'hui informatisé, où sont recensées de façon raisonnée et/ou chronologique des séries de biens, faits juridiques, lieux etc
 1) Le Sommier de la forêt est en France un document écrit, rédigé par l'administration des eaux et forêts puis par l'ONF. Ce document est en quelque sorte la mémoire de l'état de la forêt (depuis l'époque de Colbert) et des actions de l'homme en forêt. Par massif, il retrace la vie de la forêt et de l'administration de la forêt, y compris pour ses aspectes économiques (dépenses &amp; recettes). 
